--- a/CoSoDuLieu.xlsx
+++ b/CoSoDuLieu.xlsx
@@ -5776,9 +5776,6 @@
     <t>SOTIEN(string)</t>
   </si>
   <si>
-    <t>GHICHU(string)</t>
-  </si>
-  <si>
     <t>GHICHU( string)</t>
   </si>
   <si>
@@ -5864,6 +5861,9 @@
   </si>
   <si>
     <t>MALOPDK(string)</t>
+  </si>
+  <si>
+    <t>MACTV(string)</t>
   </si>
 </sst>
 </file>
@@ -6319,7 +6319,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
@@ -6371,10 +6371,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>2</v>
@@ -6383,19 +6383,19 @@
         <v>6</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -6403,7 +6403,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -6427,7 +6427,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>29</v>
@@ -6442,16 +6442,16 @@
         <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -6459,10 +6459,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C3" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -6498,16 +6498,16 @@
         <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="P3" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="Q3" t="s">
         <v>7</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6536,7 +6536,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
@@ -6551,16 +6551,16 @@
         <v>29</v>
       </c>
       <c r="O4" t="s">
+        <v>1923</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>1924</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>1925</v>
       </c>
       <c r="Q4" t="s">
         <v>8</v>
       </c>
       <c r="R4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -6589,7 +6589,7 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="K5" t="s">
         <v>31</v>
@@ -6601,16 +6601,16 @@
         <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="Q5" t="s">
         <v>9</v>
       </c>
       <c r="R5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -6639,10 +6639,10 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="K6" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
@@ -6651,7 +6651,7 @@
         <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="Q6" t="s">
         <v>10</v>
@@ -6668,13 +6668,13 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="G7" t="s">
         <v>1915</v>
       </c>
       <c r="H7" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -6686,7 +6686,7 @@
         <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="Q7" t="s">
         <v>11</v>
@@ -6697,16 +6697,16 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G8" t="s">
         <v>1918</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1919</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="L8" t="s">
         <v>34</v>
@@ -6720,7 +6720,7 @@
         <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="L9" t="s">
         <v>35</v>
@@ -6752,10 +6752,10 @@
     </row>
     <row r="15" spans="1:18" s="24" customFormat="1">
       <c r="A15" s="24" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>1944</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>1945</v>
       </c>
     </row>
   </sheetData>
